--- a/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.009000472590914993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.018781458456024</v>
+        <v>3.018781458456023</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2197455986623005</v>
@@ -649,7 +649,7 @@
         <v>-0.005566444785039728</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9638728733580509</v>
+        <v>0.9638728733580507</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.110078440445163</v>
+        <v>-2.216545945217979</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9870378719339949</v>
+        <v>-1.100473489767314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.322560086977967</v>
+        <v>-1.328590850284264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.108202015589131</v>
+        <v>1.002540418456522</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5318853317765561</v>
+        <v>-0.5272772346153833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3647986522686772</v>
+        <v>-0.4101683344484396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5618484059991476</v>
+        <v>-0.6046293180457739</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2431358288253588</v>
+        <v>0.1713456404625699</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6533516986329692</v>
+        <v>0.4214974602879691</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.557562935782213</v>
+        <v>1.385278315133188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.245468371213148</v>
+        <v>1.304500570238232</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.965334436595543</v>
+        <v>4.897675553169329</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2562688207644548</v>
+        <v>0.1923080578773216</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.104501165491252</v>
+        <v>0.940631705394089</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.308717634654836</v>
+        <v>1.230971582600554</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.371535751061088</v>
+        <v>2.288620865038628</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2819824969545226</v>
+        <v>-0.254387817182483</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6568132151725979</v>
+        <v>-0.6085381140904275</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5491188923774375</v>
+        <v>-0.5496667614164524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8967951048103038</v>
+        <v>-0.9326183337846128</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3473813816737542</v>
+        <v>-0.2837240754138921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3595064115330048</v>
+        <v>-0.3285335965122973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4656585521756682</v>
+        <v>-0.4659403898825285</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2907891231415602</v>
+        <v>-0.3034496517654174</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.019643382807627</v>
+        <v>0.9791516505326281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.073089083211676</v>
+        <v>1.110370204052985</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6872832958946429</v>
+        <v>0.7092248383478312</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.102884807483737</v>
+        <v>1.119463970154591</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.287544680920022</v>
+        <v>2.435391892768595</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8724414348439715</v>
+        <v>0.9679901754700999</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.175519624967789</v>
+        <v>1.307732559737476</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5487193397106087</v>
+        <v>0.5696478828824438</v>
       </c>
     </row>
     <row r="10">
@@ -860,26 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9021985554516955</v>
+        <v>-1.00010991782291</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3828644927319816</v>
+        <v>-0.3631991493066933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.243982987679327</v>
+        <v>-1.172539447593993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.273463453962864</v>
+        <v>-1.302222237667456</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8035239978656311</v>
+        <v>-0.8358001692935152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4534286809024704</v>
-      </c>
-      <c r="I11" s="6" t="inlineStr"/>
+        <v>-0.3235557862775409</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5214419478346274</v>
+        <v>-0.5019549855251937</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.468244603017288</v>
+        <v>1.479436155601277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.153377089874973</v>
+        <v>4.337236182925094</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4141534567544733</v>
+        <v>0.4949944402640721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.111927852251878</v>
+        <v>1.118244685392404</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.935513150361356</v>
+        <v>7.762226549967228</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>7.077049558246655</v>
-      </c>
-      <c r="I12" s="6" t="inlineStr"/>
+        <v>6.68518938654362</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>4.214214717797378</v>
+      </c>
       <c r="J12" s="6" t="n">
-        <v>1.099048900670305</v>
+        <v>1.013641170371885</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4513283252206783</v>
+        <v>-0.4624230264872249</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1691767405470147</v>
+        <v>-0.1756961738106379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4508635633845016</v>
+        <v>-0.5646318804073082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.02074293558998874</v>
+        <v>-0.03154845411641364</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2472561590144333</v>
+        <v>-0.2529513866339032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09285999247576379</v>
+        <v>-0.09383871177094932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3702081754367659</v>
+        <v>-0.4033313417111289</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.009044677353100942</v>
+        <v>-0.01166827550009701</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7509208636475755</v>
+        <v>0.7225579517373297</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.261780483689437</v>
+        <v>1.233871441534995</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5888332691418179</v>
+        <v>0.5558007217057033</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.425901481576543</v>
+        <v>1.442986706098351</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6057394098469125</v>
+        <v>0.600614403553824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9275689459602312</v>
+        <v>0.8993847394424557</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7519773049806092</v>
+        <v>0.7578753806926557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6825769635010234</v>
+        <v>0.6714095987750232</v>
       </c>
     </row>
     <row r="16">
